--- a/biology/Botanique/Laguncularia_racemosa/Laguncularia_racemosa.xlsx
+++ b/biology/Botanique/Laguncularia_racemosa/Laguncularia_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laguncularia racemosa ou Palétuvier blanc est un palétuvier du genre Laguncularia et de la famille des Combretaceae.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Laguncularia vient du latin laguncula, diminutif de laguna « bouteille » ; l'épithète spécifique racemosa vient du latin racemosus, dérivé de racemus, « grappe, raisin ».
-Nom vernaculaires
-Parmi les noms vernaculaires de la plante, citons : mangle blanco, mangla bobo, manglier blanc ou palétuvier blanc, pataban, white mangrove[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laguncularia vient du latin laguncula, diminutif de laguna « bouteille » ; l'épithète spécifique racemosa vient du latin racemosus, dérivé de racemus, « grappe, raisin ».
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre d'une dizaine de mètres, au feuillage vert lumineux, feuilles succulentes, arrondies ; avec des fleurs, en épis blancs qui donnent de fruits côtelés-ailés qui flottent sur l'eau.
+          <t>Nom vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les noms vernaculaires de la plante, citons : mangle blanco, mangla bobo, manglier blanc ou palétuvier blanc, pataban, white mangrove.
 </t>
         </is>
       </c>
@@ -573,10 +594,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre d'une dizaine de mètres, au feuillage vert lumineux, feuilles succulentes, arrondies ; avec des fleurs, en épis blancs qui donnent de fruits côtelés-ailés qui flottent sur l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laguncularia_racemosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laguncularia_racemosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve le palétuvier blanc Laguncularia racemosa sur la côte ouest de l'Afrique, du Sénégal au Cameroun.
 On le rencontre aussi le long de la côte Atlantique de l'Amérique de la Floride au sud du Brésil et sur la côte du Pacifique du Mexique au Pérou.
